--- a/TestingAndCalibrationLabs/TestingAndCalibrationLabs/UIDatatSavedToGoogleDrive Test Report.xlsx
+++ b/TestingAndCalibrationLabs/TestingAndCalibrationLabs/UIDatatSavedToGoogleDrive Test Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Test\testSushil\TestingAndCalibrationLabs\TestingAndCalibrationLabs\TestingAndCalibrationLabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Test Cases</t>
   </si>
@@ -50,9 +50,6 @@
     <t>It should the error message</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Input fields should be red</t>
   </si>
   <si>
@@ -71,48 +68,15 @@
     <t>when the input field consists of only speacial characters</t>
   </si>
   <si>
-    <t>It shouldn't accept only special characters</t>
-  </si>
-  <si>
     <t>when the input field consists of only numbers</t>
   </si>
   <si>
-    <t>It shouldn't accept only numbers</t>
-  </si>
-  <si>
-    <t>It shouldn't allow if the string is consists of only Special charaters</t>
-  </si>
-  <si>
     <t>when the Job-ID input fields is empty</t>
   </si>
   <si>
-    <t>When the Job-ID consists of only operators</t>
-  </si>
-  <si>
-    <t>It shouldn't accept only operators</t>
-  </si>
-  <si>
-    <t>It shouldn't allow if the string is consists of only Operators</t>
-  </si>
-  <si>
     <t>when the Client name input fields is empty</t>
   </si>
   <si>
-    <t>when the Client name input field consists of only speacial characters</t>
-  </si>
-  <si>
-    <t>when the Client Name input field consists of only numbers</t>
-  </si>
-  <si>
-    <t>when the name input field consists of only speacial characters</t>
-  </si>
-  <si>
-    <t>when the name input field consists of only numbers</t>
-  </si>
-  <si>
-    <t>It shouldn't allow if the string is consists of only Numbers</t>
-  </si>
-  <si>
     <t>When the Email Id input field is empty</t>
   </si>
   <si>
@@ -143,7 +107,10 @@
     <t>It shouldn't accept the file which we given</t>
   </si>
   <si>
-    <t>Faults</t>
+    <t>When the Email Id input without proper extension</t>
+  </si>
+  <si>
+    <t>It shouldn't accept the Email-id only if it doesn't consists of proper extension</t>
   </si>
 </sst>
 </file>
@@ -470,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,9 +466,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -522,7 +487,7 @@
         <v>2.1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -536,10 +501,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -550,10 +515,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -564,84 +529,78 @@
         <v>3.1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="AI6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>3.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="AI9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -649,27 +608,24 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -680,13 +636,13 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>5.0999999999999996</v>
+        <v>6.3</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -694,44 +650,38 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -742,13 +692,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -756,13 +706,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -770,13 +720,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -784,71 +734,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>7.2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>7.3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>7.4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>7.5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
         <v>6</v>
       </c>
     </row>

--- a/TestingAndCalibrationLabs/TestingAndCalibrationLabs/UIDatatSavedToGoogleDrive Test Report.xlsx
+++ b/TestingAndCalibrationLabs/TestingAndCalibrationLabs/UIDatatSavedToGoogleDrive Test Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Test Cases</t>
   </si>
@@ -50,9 +50,6 @@
     <t>It should the error message</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Input fields should be red</t>
   </si>
   <si>
@@ -71,48 +68,15 @@
     <t>when the input field consists of only speacial characters</t>
   </si>
   <si>
-    <t>It shouldn't accept only special characters</t>
-  </si>
-  <si>
     <t>when the input field consists of only numbers</t>
   </si>
   <si>
-    <t>It shouldn't accept only numbers</t>
-  </si>
-  <si>
-    <t>It shouldn't allow if the string is consists of only Special charaters</t>
-  </si>
-  <si>
     <t>when the Job-ID input fields is empty</t>
   </si>
   <si>
-    <t>When the Job-ID consists of only operators</t>
-  </si>
-  <si>
-    <t>It shouldn't accept only operators</t>
-  </si>
-  <si>
-    <t>It shouldn't allow if the string is consists of only Operators</t>
-  </si>
-  <si>
     <t>when the Client name input fields is empty</t>
   </si>
   <si>
-    <t>when the Client name input field consists of only speacial characters</t>
-  </si>
-  <si>
-    <t>when the Client Name input field consists of only numbers</t>
-  </si>
-  <si>
-    <t>when the name input field consists of only speacial characters</t>
-  </si>
-  <si>
-    <t>when the name input field consists of only numbers</t>
-  </si>
-  <si>
-    <t>It shouldn't allow if the string is consists of only Numbers</t>
-  </si>
-  <si>
     <t>When the Email Id input field is empty</t>
   </si>
   <si>
@@ -143,7 +107,10 @@
     <t>It shouldn't accept the file which we given</t>
   </si>
   <si>
-    <t>Faults</t>
+    <t>When the Email Id input without proper extension</t>
+  </si>
+  <si>
+    <t>It shouldn't accept the Email-id only if it doesn't consists of proper extension</t>
   </si>
 </sst>
 </file>
@@ -470,17 +437,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
     <col min="2" max="2" width="57.7265625" customWidth="1"/>
-    <col min="3" max="3" width="54.08984375" customWidth="1"/>
+    <col min="3" max="3" width="64.26953125" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
     <col min="5" max="5" width="58.1796875" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" customWidth="1"/>
@@ -499,9 +466,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -522,7 +487,7 @@
         <v>2.1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -536,10 +501,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -550,10 +515,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -564,84 +529,78 @@
         <v>3.1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="AI6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>3.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="AI9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -649,27 +608,24 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -680,13 +636,13 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>5.0999999999999996</v>
+        <v>6.3</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -694,44 +650,38 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -742,13 +692,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -756,13 +706,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -770,13 +720,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -784,71 +734,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>7.2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>7.3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>7.4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>7.5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
         <v>6</v>
       </c>
     </row>
